--- a/biology/Zoologie/Cicurina/Cicurina.xlsx
+++ b/biology/Zoologie/Cicurina/Cicurina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cicurina est un genre d'araignées aranéomorphes de la famille des Cicurinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cicurina est un genre d'araignées aranéomorphes de la famille des Cicurinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 11/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 11/03/2024) :
 Cicurina aenigma Gertsch, 1992
 Cicurina alpicora Barrows, 1945
 Cicurina anhuiensis Chen, 1986
@@ -717,11 +733,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Menge en 1871. Il est placé dans les Dictynidae par Lehtinen en 1967[2], dans les Hahniidae par Wheeler et al. en 2017[3] puis dans les Cicurinidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023[4].
-Moguracicurina[5] a été placé en synonymie par Yaginuma en 1963[6].
-Tetrilus[7] a été placé en synonymie par Lehtinen en 1967[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Menge en 1871. Il est placé dans les Dictynidae par Lehtinen en 1967, dans les Hahniidae par Wheeler et al. en 2017 puis dans les Cicurinidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023.
+Moguracicurina a été placé en synonymie par Yaginuma en 1963.
+Tetrilus a été placé en synonymie par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -750,7 +768,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Menge, 1871 : « Preussische Spinnen. IV. Abtheilung. » Naturforschende Gesellschaft in Danzig, (N. F.), vol. 2, p. 265-296.</t>
         </is>
